--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - MATHEMATICS.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - MATHEMATICS.xlsx
@@ -8,11 +8,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="afkW+4GgY6OIiy3hY+itsgq4xTA4/yK+nOzu3YpYp8w="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Student ID</t>
   </si>
@@ -65,9 +70,18 @@
     <t>MBABAZI ANDREW</t>
   </si>
   <si>
+    <t>10/40</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>OCHORA WALTER</t>
   </si>
   <si>
+    <t>25/40</t>
+  </si>
+  <si>
     <t>ODONG SAMUEL</t>
   </si>
   <si>
@@ -75,6 +89,9 @@
   </si>
   <si>
     <t>OKELLO PATRICK</t>
+  </si>
+  <si>
+    <t>27/40</t>
   </si>
   <si>
     <t>OLANYA JACOB</t>
@@ -168,13 +185,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,27 +561,35 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3">
+        <v>37.0</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -573,31 +601,37 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="3">
+        <v>44.0</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3">
+        <v>55.0</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -609,7 +643,7 @@
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1652,7 +1686,7 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1662,7 +1696,7 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1672,7 +1706,7 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1682,7 +1716,7 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1692,7 +1726,7 @@
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1702,7 +1736,7 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1712,7 +1746,7 @@
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1722,7 +1756,7 @@
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1732,7 +1766,7 @@
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1742,7 +1776,7 @@
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1752,7 +1786,7 @@
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1762,7 +1796,7 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1772,7 +1806,7 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1782,7 +1816,7 @@
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1792,7 +1826,7 @@
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1802,7 +1836,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1812,7 +1846,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1822,7 +1856,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
